--- a/biology/Botanique/Acmena/Acmena.xlsx
+++ b/biology/Botanique/Acmena/Acmena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acmena est un genre de la famille des Myrtaceae. Il comprend quinze espèces d'arbres ou de buissons dont six sont originaires d'Australie, les autres de Malaisie.
 Plusieurs espèces du genre Eugenia ont été déplacées dans les genres Acmena et Syzygium. Ce sont trois genres très proches.
@@ -514,7 +526,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acmena hemilampra
 Acmena ingens (F.Muell. ex C.Moore) Guymer &amp; B.Hyland
@@ -546,7 +560,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le nom du genre vient du grec et signigie « abondant ».</t>
         </is>
